--- a/gsvesc-jlcbom.xlsx
+++ b/gsvesc-jlcbom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">C1794</t>
   </si>
   <si>
+    <t xml:space="preserve">13/7.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">10u0/25V</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t xml:space="preserve">C46653</t>
   </si>
   <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLUE</t>
   </si>
   <si>
@@ -124,6 +130,9 @@
     <t xml:space="preserve">C2293</t>
   </si>
   <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
     <t xml:space="preserve">RED</t>
   </si>
   <si>
@@ -139,6 +148,9 @@
     <t xml:space="preserve">C2297</t>
   </si>
   <si>
+    <t xml:space="preserve">Verhältnis</t>
+  </si>
+  <si>
     <t xml:space="preserve">SS210</t>
   </si>
   <si>
@@ -163,6 +175,18 @@
     <t xml:space="preserve">C8598</t>
   </si>
   <si>
+    <t xml:space="preserve">SMMBD914LT3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8, D9, D10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C233426</t>
+  </si>
+  <si>
     <t xml:space="preserve">470u</t>
   </si>
   <si>
@@ -238,7 +262,7 @@
     <t xml:space="preserve">10k0</t>
   </si>
   <si>
-    <t xml:space="preserve">R8, R16, R27, R36, R41</t>
+    <t xml:space="preserve">R8, R16,  R36, R41</t>
   </si>
   <si>
     <t xml:space="preserve">C17414</t>
@@ -253,6 +277,15 @@
     <t xml:space="preserve">C17513</t>
   </si>
   <si>
+    <t xml:space="preserve">13k0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17455</t>
+  </si>
+  <si>
     <t xml:space="preserve">221R</t>
   </si>
   <si>
@@ -301,13 +334,13 @@
     <t xml:space="preserve">C76233</t>
   </si>
   <si>
-    <t xml:space="preserve">5k90</t>
+    <t xml:space="preserve">7k50</t>
   </si>
   <si>
     <t xml:space="preserve">R34, </t>
   </si>
   <si>
-    <t xml:space="preserve">C17730</t>
+    <t xml:space="preserve">C17807</t>
   </si>
   <si>
     <t xml:space="preserve">STM32F405RGT6</t>
@@ -382,7 +415,7 @@
     <t xml:space="preserve">C9864</t>
   </si>
   <si>
-    <t xml:space="preserve">ABM3B 8MHz</t>
+    <t xml:space="preserve">X50328MSB2GI</t>
   </si>
   <si>
     <t xml:space="preserve">Y1, </t>
@@ -391,7 +424,7 @@
     <t xml:space="preserve">SMD-4</t>
   </si>
   <si>
-    <t xml:space="preserve">C83312</t>
+    <t xml:space="preserve">C115962</t>
   </si>
 </sst>
 </file>
@@ -402,11 +435,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -428,6 +462,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -441,21 +476,10 @@
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -528,15 +552,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,16 +581,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ36"/>
+  <dimension ref="A1:AMJ38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
@@ -617,467 +641,528 @@
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="H3" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">H10/H9</f>
+        <v>0.59</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">J10/J9</f>
+        <v>0.576923076923077</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">K12-H12</f>
+        <v>-0.0130769230769232</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>50</v>
+      <c r="A15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>64</v>
+      <c r="D19" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>67</v>
+      <c r="D20" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>70</v>
+      <c r="D21" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>73</v>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>85</v>
+      <c r="D26" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>88</v>
+      <c r="D27" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>95</v>
+      <c r="D29" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1095,28 +1180,30 @@
     <hyperlink ref="D12" r:id="rId11" display="C2297"/>
     <hyperlink ref="D13" r:id="rId12" display="C14996"/>
     <hyperlink ref="D14" r:id="rId13" display="C8598"/>
-    <hyperlink ref="D15" r:id="rId14" display="C169393"/>
-    <hyperlink ref="D16" r:id="rId15" display="C132136"/>
-    <hyperlink ref="D17" r:id="rId16" display="C146377"/>
-    <hyperlink ref="D18" r:id="rId17" display="C17477"/>
-    <hyperlink ref="D19" r:id="rId18" display="C17561"/>
-    <hyperlink ref="D20" r:id="rId19" display="C17408"/>
-    <hyperlink ref="D21" r:id="rId20" display="C17530"/>
-    <hyperlink ref="D22" r:id="rId21" display="C17414"/>
-    <hyperlink ref="D23" r:id="rId22" display="C17513"/>
-    <hyperlink ref="D24" r:id="rId23" display="C17557"/>
-    <hyperlink ref="D25" r:id="rId24" display="C17772"/>
-    <hyperlink ref="D26" r:id="rId25" display="C4382"/>
-    <hyperlink ref="D27" r:id="rId26" display="C17675"/>
-    <hyperlink ref="D28" r:id="rId27" display="C76233"/>
-    <hyperlink ref="D29" r:id="rId28" display="C17730"/>
-    <hyperlink ref="D30" r:id="rId29" display="C15742"/>
-    <hyperlink ref="D31" r:id="rId30" display="C129332"/>
-    <hyperlink ref="D32" r:id="rId31" display="C129949"/>
-    <hyperlink ref="D33" r:id="rId32" display="C9424"/>
-    <hyperlink ref="D34" r:id="rId33" display="C133643"/>
-    <hyperlink ref="D35" r:id="rId34" display="C9864"/>
-    <hyperlink ref="D36" r:id="rId35" display="C83312"/>
+    <hyperlink ref="D15" r:id="rId14" display="C233426"/>
+    <hyperlink ref="D16" r:id="rId15" display="C169393"/>
+    <hyperlink ref="D17" r:id="rId16" display="C132136"/>
+    <hyperlink ref="D18" r:id="rId17" display="C146377"/>
+    <hyperlink ref="D19" r:id="rId18" display="C17477"/>
+    <hyperlink ref="D20" r:id="rId19" display="C17561"/>
+    <hyperlink ref="D21" r:id="rId20" display="C17408"/>
+    <hyperlink ref="D22" r:id="rId21" display="C17530"/>
+    <hyperlink ref="D23" r:id="rId22" display="C17414"/>
+    <hyperlink ref="D24" r:id="rId23" display="C17513"/>
+    <hyperlink ref="D25" r:id="rId24" display="C17455"/>
+    <hyperlink ref="D26" r:id="rId25" display="C17557"/>
+    <hyperlink ref="D27" r:id="rId26" display="C17772"/>
+    <hyperlink ref="D28" r:id="rId27" display="C4382"/>
+    <hyperlink ref="D29" r:id="rId28" display="C17675"/>
+    <hyperlink ref="D30" r:id="rId29" display="C76233"/>
+    <hyperlink ref="D31" r:id="rId30" display="C17807"/>
+    <hyperlink ref="D32" r:id="rId31" display="C15742"/>
+    <hyperlink ref="D33" r:id="rId32" display="C129332"/>
+    <hyperlink ref="D34" r:id="rId33" display="C129949"/>
+    <hyperlink ref="D35" r:id="rId34" display="C9424"/>
+    <hyperlink ref="D36" r:id="rId35" display="C133643"/>
+    <hyperlink ref="D37" r:id="rId36" display="C9864"/>
+    <hyperlink ref="D38" r:id="rId37" display="C115962"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/gsvesc-jlcbom.xlsx
+++ b/gsvesc-jlcbom.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="gsvesc-jlcbom" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="gsvesc" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="133">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Footprint</t>
   </si>
   <si>
-    <t xml:space="preserve">LCSC Part Number</t>
+    <t xml:space="preserve">LCSC PartNumber</t>
   </si>
   <si>
     <t xml:space="preserve">100n</t>
@@ -55,72 +55,66 @@
     <t xml:space="preserve">C1794</t>
   </si>
   <si>
-    <t xml:space="preserve">13/7.5</t>
+    <t xml:space="preserve">10u0/75V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16, C36, C43, C38, C44, C37, C39, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10n0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20, C23, C31, C14, C24, C41, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22u0/25V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C45783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C33, C34, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE-C_6032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1n00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C35, C40, C47, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C46653</t>
   </si>
   <si>
     <t xml:space="preserve">10u0/25V</t>
   </si>
   <si>
-    <t xml:space="preserve">C6, C7, C9, C8, C10, C11, C12, C13, C15, C22, C29, C28, C42, </t>
+    <t xml:space="preserve">C49, C6, C7, C9, C8, C10, C11, C12, C13, C15, C22, C29, C28, C42, </t>
   </si>
   <si>
     <t xml:space="preserve">C15850</t>
   </si>
   <si>
-    <t xml:space="preserve">10u0/75V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16, C36, C43, C38, C44, C37, C39, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10n0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20, C23, C31, C14, C24, C41, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22u0/25V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C26, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C45783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C33, C34, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASE-C_6032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1n00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C35, C40, C47, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C46653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
     <t xml:space="preserve">BLUE</t>
   </si>
   <si>
@@ -130,13 +124,10 @@
     <t xml:space="preserve">C2293</t>
   </si>
   <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
     <t xml:space="preserve">RED</t>
   </si>
   <si>
-    <t xml:space="preserve">D2, </t>
+    <t xml:space="preserve">D2, D11, </t>
   </si>
   <si>
     <t xml:space="preserve">GREEN</t>
@@ -148,9 +139,6 @@
     <t xml:space="preserve">C2297</t>
   </si>
   <si>
-    <t xml:space="preserve">Verhältnis</t>
-  </si>
-  <si>
     <t xml:space="preserve">SS210</t>
   </si>
   <si>
@@ -178,7 +166,7 @@
     <t xml:space="preserve">SMMBD914LT3G</t>
   </si>
   <si>
-    <t xml:space="preserve">D8, D9, D10,</t>
+    <t xml:space="preserve">D8, D10, D9, </t>
   </si>
   <si>
     <t xml:space="preserve">SOT-23-3</t>
@@ -262,7 +250,7 @@
     <t xml:space="preserve">10k0</t>
   </si>
   <si>
-    <t xml:space="preserve">R8, R16,  R36, R41</t>
+    <t xml:space="preserve">R8, R16, R36, </t>
   </si>
   <si>
     <t xml:space="preserve">C17414</t>
@@ -277,51 +265,51 @@
     <t xml:space="preserve">C17513</t>
   </si>
   <si>
+    <t xml:space="preserve">221R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10, R11, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">680k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12, R15, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56k0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21, R19, R17, R13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4R75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24, R39, R38, R26, R25, R43, R42, R32, R28, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17675</t>
+  </si>
+  <si>
     <t xml:space="preserve">13k0</t>
   </si>
   <si>
-    <t xml:space="preserve">R27</t>
+    <t xml:space="preserve">R27, </t>
   </si>
   <si>
     <t xml:space="preserve">C17455</t>
   </si>
   <si>
-    <t xml:space="preserve">221R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10, R11, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">680k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12, R15, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56k0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R21, R19, R17, R13, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4R75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R24, R39, R38, R26, R25, R43, R42, R32, R28, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17675</t>
-  </si>
-  <si>
     <t xml:space="preserve">0R001</t>
   </si>
   <si>
@@ -337,13 +325,13 @@
     <t xml:space="preserve">7k50</t>
   </si>
   <si>
-    <t xml:space="preserve">R34, </t>
+    <t xml:space="preserve">R34, R35,</t>
   </si>
   <si>
     <t xml:space="preserve">C17807</t>
   </si>
   <si>
-    <t xml:space="preserve">STM32F405RGT6</t>
+    <t xml:space="preserve">STM32F405RGTx</t>
   </si>
   <si>
     <t xml:space="preserve">U1, </t>
@@ -413,6 +401,12 @@
   </si>
   <si>
     <t xml:space="preserve">C9864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYSGJNZWY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U16, </t>
   </si>
   <si>
     <t xml:space="preserve">X50328MSB2GI</t>
@@ -544,6 +538,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -552,12 +550,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -581,22 +575,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="58.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,53 +601,46 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -666,515 +651,493 @@
       <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B11" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <f aca="false">H10/H9</f>
-        <v>0.59</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <f aca="false">J10/J9</f>
-        <v>0.576923076923077</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <f aca="false">K12-H12</f>
-        <v>-0.0130769230769232</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B15" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B18" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="5" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="B24" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B25" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="5" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="5" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="B30" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B31" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="D39" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="C49678"/>
     <hyperlink ref="D3" r:id="rId2" display="C1794"/>
-    <hyperlink ref="D4" r:id="rId3" display="C15850"/>
-    <hyperlink ref="D5" r:id="rId4" display="C13585"/>
-    <hyperlink ref="D6" r:id="rId5" display="C1710"/>
-    <hyperlink ref="D7" r:id="rId6" display="C45783"/>
-    <hyperlink ref="D8" r:id="rId7" display="C7171"/>
-    <hyperlink ref="D9" r:id="rId8" display="C46653"/>
+    <hyperlink ref="D4" r:id="rId3" display="C13585"/>
+    <hyperlink ref="D5" r:id="rId4" display="C1710"/>
+    <hyperlink ref="D6" r:id="rId5" display="C45783"/>
+    <hyperlink ref="D7" r:id="rId6" display="C7171"/>
+    <hyperlink ref="D8" r:id="rId7" display="C46653"/>
+    <hyperlink ref="D9" r:id="rId8" display="C15850"/>
     <hyperlink ref="D10" r:id="rId9" display="C2293"/>
     <hyperlink ref="D11" r:id="rId10" display="C2293"/>
     <hyperlink ref="D12" r:id="rId11" display="C2297"/>
@@ -1190,20 +1153,14 @@
     <hyperlink ref="D22" r:id="rId21" display="C17530"/>
     <hyperlink ref="D23" r:id="rId22" display="C17414"/>
     <hyperlink ref="D24" r:id="rId23" display="C17513"/>
-    <hyperlink ref="D25" r:id="rId24" display="C17455"/>
-    <hyperlink ref="D26" r:id="rId25" display="C17557"/>
-    <hyperlink ref="D27" r:id="rId26" display="C17772"/>
-    <hyperlink ref="D28" r:id="rId27" display="C4382"/>
-    <hyperlink ref="D29" r:id="rId28" display="C17675"/>
+    <hyperlink ref="D25" r:id="rId24" display="C17557"/>
+    <hyperlink ref="D26" r:id="rId25" display="C17772"/>
+    <hyperlink ref="D27" r:id="rId26" display="C4382"/>
+    <hyperlink ref="D28" r:id="rId27" display="C17675"/>
+    <hyperlink ref="D29" r:id="rId28" display="C17455"/>
     <hyperlink ref="D30" r:id="rId29" display="C76233"/>
     <hyperlink ref="D31" r:id="rId30" display="C17807"/>
-    <hyperlink ref="D32" r:id="rId31" display="C15742"/>
-    <hyperlink ref="D33" r:id="rId32" display="C129332"/>
-    <hyperlink ref="D34" r:id="rId33" display="C129949"/>
-    <hyperlink ref="D35" r:id="rId34" display="C9424"/>
-    <hyperlink ref="D36" r:id="rId35" display="C133643"/>
-    <hyperlink ref="D37" r:id="rId36" display="C9864"/>
-    <hyperlink ref="D38" r:id="rId37" display="C115962"/>
+    <hyperlink ref="D39" r:id="rId31" display="C115962"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/gsvesc-jlcbom.xlsx
+++ b/gsvesc-jlcbom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Footprint</t>
   </si>
   <si>
-    <t xml:space="preserve">LCSC PartNumber</t>
+    <t xml:space="preserve">LCSC Partnumber</t>
   </si>
   <si>
     <t xml:space="preserve">100n</t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve">10k0</t>
   </si>
   <si>
-    <t xml:space="preserve">R8, R16, R36, </t>
+    <t xml:space="preserve">R8, R16, R36, R37, R40</t>
   </si>
   <si>
     <t xml:space="preserve">C17414</t>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">7k50</t>
   </si>
   <si>
-    <t xml:space="preserve">R34, R35,</t>
+    <t xml:space="preserve">R35, R34, </t>
   </si>
   <si>
     <t xml:space="preserve">C17807</t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">C15742</t>
   </si>
   <si>
-    <t xml:space="preserve">LM5109A</t>
+    <t xml:space="preserve">LM5107</t>
   </si>
   <si>
     <t xml:space="preserve">U3, U12, U15, </t>
@@ -407,6 +407,18 @@
   </si>
   <si>
     <t xml:space="preserve">U16, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMP100NA_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23-6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C133806</t>
   </si>
   <si>
     <t xml:space="preserve">X50328MSB2GI</t>
@@ -425,16 +437,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -456,27 +466,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -521,41 +510,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -575,72 +536,74 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="58.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -651,10 +614,10 @@
       <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -665,94 +628,94 @@
       <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -763,10 +726,10 @@
       <c r="B13" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -777,24 +740,24 @@
       <c r="B14" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="0" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -805,10 +768,10 @@
       <c r="B16" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="0" t="s">
         <v>54</v>
       </c>
     </row>
@@ -819,38 +782,38 @@
       <c r="B17" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>65</v>
       </c>
     </row>
@@ -861,24 +824,24 @@
       <c r="B20" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>71</v>
       </c>
     </row>
@@ -889,52 +852,52 @@
       <c r="B22" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>78</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>81</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>83</v>
       </c>
     </row>
@@ -945,10 +908,10 @@
       <c r="B26" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>86</v>
       </c>
     </row>
@@ -959,66 +922,66 @@
       <c r="B27" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>90</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>93</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="0" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1114,54 +1077,35 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>129</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="0" t="s">
         <v>132</v>
       </c>
     </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="C49678"/>
-    <hyperlink ref="D3" r:id="rId2" display="C1794"/>
-    <hyperlink ref="D4" r:id="rId3" display="C13585"/>
-    <hyperlink ref="D5" r:id="rId4" display="C1710"/>
-    <hyperlink ref="D6" r:id="rId5" display="C45783"/>
-    <hyperlink ref="D7" r:id="rId6" display="C7171"/>
-    <hyperlink ref="D8" r:id="rId7" display="C46653"/>
-    <hyperlink ref="D9" r:id="rId8" display="C15850"/>
-    <hyperlink ref="D10" r:id="rId9" display="C2293"/>
-    <hyperlink ref="D11" r:id="rId10" display="C2293"/>
-    <hyperlink ref="D12" r:id="rId11" display="C2297"/>
-    <hyperlink ref="D13" r:id="rId12" display="C14996"/>
-    <hyperlink ref="D14" r:id="rId13" display="C8598"/>
-    <hyperlink ref="D15" r:id="rId14" display="C233426"/>
-    <hyperlink ref="D16" r:id="rId15" display="C169393"/>
-    <hyperlink ref="D17" r:id="rId16" display="C132136"/>
-    <hyperlink ref="D18" r:id="rId17" display="C146377"/>
-    <hyperlink ref="D19" r:id="rId18" display="C17477"/>
-    <hyperlink ref="D20" r:id="rId19" display="C17561"/>
-    <hyperlink ref="D21" r:id="rId20" display="C17408"/>
-    <hyperlink ref="D22" r:id="rId21" display="C17530"/>
-    <hyperlink ref="D23" r:id="rId22" display="C17414"/>
-    <hyperlink ref="D24" r:id="rId23" display="C17513"/>
-    <hyperlink ref="D25" r:id="rId24" display="C17557"/>
-    <hyperlink ref="D26" r:id="rId25" display="C17772"/>
-    <hyperlink ref="D27" r:id="rId26" display="C4382"/>
-    <hyperlink ref="D28" r:id="rId27" display="C17675"/>
-    <hyperlink ref="D29" r:id="rId28" display="C17455"/>
-    <hyperlink ref="D30" r:id="rId29" display="C76233"/>
-    <hyperlink ref="D31" r:id="rId30" display="C17807"/>
-    <hyperlink ref="D39" r:id="rId31" display="C115962"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
